--- a/natmiOut/OldD2/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
   </si>
   <si>
     <t>Uts2r</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,123 +528,1487 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.246492012342036</v>
+        <v>0.1344555</v>
       </c>
       <c r="H2">
-        <v>0.246492012342036</v>
+        <v>0.268911</v>
       </c>
       <c r="I2">
-        <v>0.5038210903683649</v>
+        <v>0.1186548994217667</v>
       </c>
       <c r="J2">
-        <v>0.5038210903683649</v>
+        <v>0.09092768822512627</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.396401128456633</v>
+        <v>0.4122856666666667</v>
       </c>
       <c r="N2">
-        <v>0.396401128456633</v>
+        <v>1.236857</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.769469374906488</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.8059018119575253</v>
       </c>
       <c r="Q2">
-        <v>0.09770971184792937</v>
+        <v>0.05543407545450001</v>
       </c>
       <c r="R2">
-        <v>0.09770971184792937</v>
+        <v>0.3326044527270001</v>
       </c>
       <c r="S2">
-        <v>0.5038210903683649</v>
+        <v>0.09130131128765905</v>
       </c>
       <c r="T2">
-        <v>0.5038210903683649</v>
+        <v>0.0732787886977382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.1344555</v>
+      </c>
+      <c r="H3">
+        <v>0.268911</v>
+      </c>
+      <c r="I3">
+        <v>0.1186548994217667</v>
+      </c>
+      <c r="J3">
+        <v>0.09092768822512627</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.018089</v>
+      </c>
+      <c r="N3">
+        <v>0.054267</v>
+      </c>
+      <c r="O3">
+        <v>0.0337604060680017</v>
+      </c>
+      <c r="P3">
+        <v>0.03535887627227644</v>
+      </c>
+      <c r="Q3">
+        <v>0.0024321655395</v>
+      </c>
+      <c r="R3">
+        <v>0.014592993237</v>
+      </c>
+      <c r="S3">
+        <v>0.004005837586436745</v>
+      </c>
+      <c r="T3">
+        <v>0.003215100877676367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.1344555</v>
+      </c>
+      <c r="H4">
+        <v>0.268911</v>
+      </c>
+      <c r="I4">
+        <v>0.1186548994217667</v>
+      </c>
+      <c r="J4">
+        <v>0.09092768822512627</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.032764</v>
+      </c>
+      <c r="N4">
+        <v>0.098292</v>
+      </c>
+      <c r="O4">
+        <v>0.06114909306274575</v>
+      </c>
+      <c r="P4">
+        <v>0.06404434861987204</v>
+      </c>
+      <c r="Q4">
+        <v>0.004405300002</v>
+      </c>
+      <c r="R4">
+        <v>0.026431800012</v>
+      </c>
+      <c r="S4">
+        <v>0.00725563948709235</v>
+      </c>
+      <c r="T4">
+        <v>0.005823404563889021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.1344555</v>
+      </c>
+      <c r="H5">
+        <v>0.268911</v>
+      </c>
+      <c r="I5">
+        <v>0.1186548994217667</v>
+      </c>
+      <c r="J5">
+        <v>0.09092768822512627</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.07266649999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.145333</v>
+      </c>
+      <c r="O5">
+        <v>0.1356211259627644</v>
+      </c>
+      <c r="P5">
+        <v>0.09469496315032619</v>
+      </c>
+      <c r="Q5">
+        <v>0.009770410590749999</v>
+      </c>
+      <c r="R5">
+        <v>0.039081642363</v>
+      </c>
+      <c r="S5">
+        <v>0.01609211106057857</v>
+      </c>
+      <c r="T5">
+        <v>0.008610394085822681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.196102</v>
+      </c>
+      <c r="H6">
+        <v>0.588306</v>
+      </c>
+      <c r="I6">
+        <v>0.173056982320599</v>
+      </c>
+      <c r="J6">
+        <v>0.1989256837725907</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.4122856666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.236857</v>
+      </c>
+      <c r="O6">
+        <v>0.769469374906488</v>
+      </c>
+      <c r="P6">
+        <v>0.8059018119575253</v>
+      </c>
+      <c r="Q6">
+        <v>0.08085004380466668</v>
+      </c>
+      <c r="R6">
+        <v>0.7276503942420001</v>
+      </c>
+      <c r="S6">
+        <v>0.1331620480094345</v>
+      </c>
+      <c r="T6">
+        <v>0.1603145689972205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.196102</v>
+      </c>
+      <c r="H7">
+        <v>0.588306</v>
+      </c>
+      <c r="I7">
+        <v>0.173056982320599</v>
+      </c>
+      <c r="J7">
+        <v>0.1989256837725907</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.018089</v>
+      </c>
+      <c r="N7">
+        <v>0.054267</v>
+      </c>
+      <c r="O7">
+        <v>0.0337604060680017</v>
+      </c>
+      <c r="P7">
+        <v>0.03535887627227644</v>
+      </c>
+      <c r="Q7">
+        <v>0.003547289078</v>
+      </c>
+      <c r="R7">
+        <v>0.031925601702</v>
+      </c>
+      <c r="S7">
+        <v>0.005842473996046414</v>
+      </c>
+      <c r="T7">
+        <v>0.007033788639893023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.196102</v>
+      </c>
+      <c r="H8">
+        <v>0.588306</v>
+      </c>
+      <c r="I8">
+        <v>0.173056982320599</v>
+      </c>
+      <c r="J8">
+        <v>0.1989256837725907</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.032764</v>
+      </c>
+      <c r="N8">
+        <v>0.098292</v>
+      </c>
+      <c r="O8">
+        <v>0.06114909306274575</v>
+      </c>
+      <c r="P8">
+        <v>0.06404434861987204</v>
+      </c>
+      <c r="Q8">
+        <v>0.006425085928</v>
+      </c>
+      <c r="R8">
+        <v>0.057825773352</v>
+      </c>
+      <c r="S8">
+        <v>0.01058227751708025</v>
+      </c>
+      <c r="T8">
+        <v>0.01274006584097822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.196102</v>
+      </c>
+      <c r="H9">
+        <v>0.588306</v>
+      </c>
+      <c r="I9">
+        <v>0.173056982320599</v>
+      </c>
+      <c r="J9">
+        <v>0.1989256837725907</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.07266649999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.145333</v>
+      </c>
+      <c r="O9">
+        <v>0.1356211259627644</v>
+      </c>
+      <c r="P9">
+        <v>0.09469496315032619</v>
+      </c>
+      <c r="Q9">
+        <v>0.014250045983</v>
+      </c>
+      <c r="R9">
+        <v>0.08550027589799999</v>
+      </c>
+      <c r="S9">
+        <v>0.02347018279803785</v>
+      </c>
+      <c r="T9">
+        <v>0.01883726029449891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02014066666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.060422</v>
+      </c>
+      <c r="I10">
+        <v>0.0177738268618291</v>
+      </c>
+      <c r="J10">
+        <v>0.02043067326341644</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4122856666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.236857</v>
+      </c>
+      <c r="O10">
+        <v>0.769469374906488</v>
+      </c>
+      <c r="P10">
+        <v>0.8059018119575253</v>
+      </c>
+      <c r="Q10">
+        <v>0.008303708183777778</v>
+      </c>
+      <c r="R10">
+        <v>0.074733373654</v>
+      </c>
+      <c r="S10">
+        <v>0.01367641544506778</v>
+      </c>
+      <c r="T10">
+        <v>0.01646511660249948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02014066666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.060422</v>
+      </c>
+      <c r="I11">
+        <v>0.0177738268618291</v>
+      </c>
+      <c r="J11">
+        <v>0.02043067326341644</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.018089</v>
+      </c>
+      <c r="N11">
+        <v>0.054267</v>
+      </c>
+      <c r="O11">
+        <v>0.0337604060680017</v>
+      </c>
+      <c r="P11">
+        <v>0.03535887627227644</v>
+      </c>
+      <c r="Q11">
+        <v>0.0003643245193333333</v>
+      </c>
+      <c r="R11">
+        <v>0.003278920674</v>
+      </c>
+      <c r="S11">
+        <v>0.0006000516122377068</v>
+      </c>
+      <c r="T11">
+        <v>0.0007224056480804483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02014066666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.060422</v>
+      </c>
+      <c r="I12">
+        <v>0.0177738268618291</v>
+      </c>
+      <c r="J12">
+        <v>0.02043067326341644</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.032764</v>
+      </c>
+      <c r="N12">
+        <v>0.098292</v>
+      </c>
+      <c r="O12">
+        <v>0.06114909306274575</v>
+      </c>
+      <c r="P12">
+        <v>0.06404434861987204</v>
+      </c>
+      <c r="Q12">
+        <v>0.0006598888026666666</v>
+      </c>
+      <c r="R12">
+        <v>0.005938999224</v>
+      </c>
+      <c r="S12">
+        <v>0.001086853392855118</v>
+      </c>
+      <c r="T12">
+        <v>0.001308469161020941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02014066666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.060422</v>
+      </c>
+      <c r="I13">
+        <v>0.0177738268618291</v>
+      </c>
+      <c r="J13">
+        <v>0.02043067326341644</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.07266649999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.145333</v>
+      </c>
+      <c r="O13">
+        <v>0.1356211259627644</v>
+      </c>
+      <c r="P13">
+        <v>0.09469496315032619</v>
+      </c>
+      <c r="Q13">
+        <v>0.001463551754333333</v>
+      </c>
+      <c r="R13">
+        <v>0.008781310525999999</v>
+      </c>
+      <c r="S13">
+        <v>0.00241050641166849</v>
+      </c>
+      <c r="T13">
+        <v>0.001934681851815574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1930893333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.579268</v>
+      </c>
+      <c r="I14">
+        <v>0.1703983505775714</v>
+      </c>
+      <c r="J14">
+        <v>0.1958696375484545</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.4122856666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.236857</v>
+      </c>
+      <c r="O14">
+        <v>0.769469374906488</v>
+      </c>
+      <c r="P14">
+        <v>0.8059018119575253</v>
+      </c>
+      <c r="Q14">
+        <v>0.07960796451955557</v>
+      </c>
+      <c r="R14">
+        <v>0.7164716806760001</v>
+      </c>
+      <c r="S14">
+        <v>0.1311163123040205</v>
+      </c>
+      <c r="T14">
+        <v>0.1578516958077632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1930893333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.579268</v>
+      </c>
+      <c r="I15">
+        <v>0.1703983505775714</v>
+      </c>
+      <c r="J15">
+        <v>0.1958696375484545</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.018089</v>
+      </c>
+      <c r="N15">
+        <v>0.054267</v>
+      </c>
+      <c r="O15">
+        <v>0.0337604060680017</v>
+      </c>
+      <c r="P15">
+        <v>0.03535887627227644</v>
+      </c>
+      <c r="Q15">
+        <v>0.003492792950666667</v>
+      </c>
+      <c r="R15">
+        <v>0.031435136556</v>
+      </c>
+      <c r="S15">
+        <v>0.005752717508816524</v>
+      </c>
+      <c r="T15">
+        <v>0.006925730279571433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.242753112672114</v>
-      </c>
-      <c r="H3">
-        <v>0.242753112672114</v>
-      </c>
-      <c r="I3">
-        <v>0.4961789096316352</v>
-      </c>
-      <c r="J3">
-        <v>0.4961789096316352</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.396401128456633</v>
-      </c>
-      <c r="N3">
-        <v>0.396401128456633</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.09622760779958617</v>
-      </c>
-      <c r="R3">
-        <v>0.09622760779958617</v>
-      </c>
-      <c r="S3">
-        <v>0.4961789096316352</v>
-      </c>
-      <c r="T3">
-        <v>0.4961789096316352</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1930893333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.579268</v>
+      </c>
+      <c r="I16">
+        <v>0.1703983505775714</v>
+      </c>
+      <c r="J16">
+        <v>0.1958696375484545</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.032764</v>
+      </c>
+      <c r="N16">
+        <v>0.098292</v>
+      </c>
+      <c r="O16">
+        <v>0.06114909306274575</v>
+      </c>
+      <c r="P16">
+        <v>0.06404434861987204</v>
+      </c>
+      <c r="Q16">
+        <v>0.006326378917333334</v>
+      </c>
+      <c r="R16">
+        <v>0.056937410256</v>
+      </c>
+      <c r="S16">
+        <v>0.01041970459720629</v>
+      </c>
+      <c r="T16">
+        <v>0.0125443433512012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1930893333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.579268</v>
+      </c>
+      <c r="I17">
+        <v>0.1703983505775714</v>
+      </c>
+      <c r="J17">
+        <v>0.1958696375484545</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.07266649999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.145333</v>
+      </c>
+      <c r="O17">
+        <v>0.1356211259627644</v>
+      </c>
+      <c r="P17">
+        <v>0.09469496315032619</v>
+      </c>
+      <c r="Q17">
+        <v>0.01403112604066667</v>
+      </c>
+      <c r="R17">
+        <v>0.08418675624399999</v>
+      </c>
+      <c r="S17">
+        <v>0.02310961616752811</v>
+      </c>
+      <c r="T17">
+        <v>0.01854786810991864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2817553333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.8452660000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.248644724375076</v>
+      </c>
+      <c r="J18">
+        <v>0.2858123442897449</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.4122856666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.236857</v>
+      </c>
+      <c r="O18">
+        <v>0.769469374906488</v>
+      </c>
+      <c r="P18">
+        <v>0.8059018119575253</v>
+      </c>
+      <c r="Q18">
+        <v>0.1161636854402223</v>
+      </c>
+      <c r="R18">
+        <v>1.045473168962</v>
+      </c>
+      <c r="S18">
+        <v>0.1913245006386857</v>
+      </c>
+      <c r="T18">
+        <v>0.2303366861429335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2817553333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.8452660000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.248644724375076</v>
+      </c>
+      <c r="J19">
+        <v>0.2858123442897449</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.018089</v>
+      </c>
+      <c r="N19">
+        <v>0.054267</v>
+      </c>
+      <c r="O19">
+        <v>0.0337604060680017</v>
+      </c>
+      <c r="P19">
+        <v>0.03535887627227644</v>
+      </c>
+      <c r="Q19">
+        <v>0.005096672224666667</v>
+      </c>
+      <c r="R19">
+        <v>0.04587005002200001</v>
+      </c>
+      <c r="S19">
+        <v>0.008394346861568926</v>
+      </c>
+      <c r="T19">
+        <v>0.01010600331883037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2817553333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.8452660000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.248644724375076</v>
+      </c>
+      <c r="J20">
+        <v>0.2858123442897449</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.032764</v>
+      </c>
+      <c r="N20">
+        <v>0.098292</v>
+      </c>
+      <c r="O20">
+        <v>0.06114909306274575</v>
+      </c>
+      <c r="P20">
+        <v>0.06404434861987204</v>
+      </c>
+      <c r="Q20">
+        <v>0.009231431741333335</v>
+      </c>
+      <c r="R20">
+        <v>0.08308288567200001</v>
+      </c>
+      <c r="S20">
+        <v>0.01520439939037229</v>
+      </c>
+      <c r="T20">
+        <v>0.01830466541755532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2817553333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.8452660000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.248644724375076</v>
+      </c>
+      <c r="J21">
+        <v>0.2858123442897449</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.07266649999999999</v>
+      </c>
+      <c r="N21">
+        <v>0.145333</v>
+      </c>
+      <c r="O21">
+        <v>0.1356211259627644</v>
+      </c>
+      <c r="P21">
+        <v>0.09469496315032619</v>
+      </c>
+      <c r="Q21">
+        <v>0.02047417392966667</v>
+      </c>
+      <c r="R21">
+        <v>0.122845043578</v>
+      </c>
+      <c r="S21">
+        <v>0.03372147748444902</v>
+      </c>
+      <c r="T21">
+        <v>0.02706498941042573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3076215</v>
+      </c>
+      <c r="H22">
+        <v>0.615243</v>
+      </c>
+      <c r="I22">
+        <v>0.2714712164431579</v>
+      </c>
+      <c r="J22">
+        <v>0.2080339729006674</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.4122856666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.236857</v>
+      </c>
+      <c r="O22">
+        <v>0.769469374906488</v>
+      </c>
+      <c r="P22">
+        <v>0.8059018119575253</v>
+      </c>
+      <c r="Q22">
+        <v>0.1268279352085</v>
+      </c>
+      <c r="R22">
+        <v>0.760967611251</v>
+      </c>
+      <c r="S22">
+        <v>0.2088887872216206</v>
+      </c>
+      <c r="T22">
+        <v>0.1676549557093705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3076215</v>
+      </c>
+      <c r="H23">
+        <v>0.615243</v>
+      </c>
+      <c r="I23">
+        <v>0.2714712164431579</v>
+      </c>
+      <c r="J23">
+        <v>0.2080339729006674</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.018089</v>
+      </c>
+      <c r="N23">
+        <v>0.054267</v>
+      </c>
+      <c r="O23">
+        <v>0.0337604060680017</v>
+      </c>
+      <c r="P23">
+        <v>0.03535887627227644</v>
+      </c>
+      <c r="Q23">
+        <v>0.0055645653135</v>
+      </c>
+      <c r="R23">
+        <v>0.033387391881</v>
+      </c>
+      <c r="S23">
+        <v>0.009164978502895389</v>
+      </c>
+      <c r="T23">
+        <v>0.007355847508224807</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3076215</v>
+      </c>
+      <c r="H24">
+        <v>0.615243</v>
+      </c>
+      <c r="I24">
+        <v>0.2714712164431579</v>
+      </c>
+      <c r="J24">
+        <v>0.2080339729006674</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.032764</v>
+      </c>
+      <c r="N24">
+        <v>0.098292</v>
+      </c>
+      <c r="O24">
+        <v>0.06114909306274575</v>
+      </c>
+      <c r="P24">
+        <v>0.06404434861987204</v>
+      </c>
+      <c r="Q24">
+        <v>0.010078910826</v>
+      </c>
+      <c r="R24">
+        <v>0.060473464956</v>
+      </c>
+      <c r="S24">
+        <v>0.01660021867813945</v>
+      </c>
+      <c r="T24">
+        <v>0.01332340028522735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3076215</v>
+      </c>
+      <c r="H25">
+        <v>0.615243</v>
+      </c>
+      <c r="I25">
+        <v>0.2714712164431579</v>
+      </c>
+      <c r="J25">
+        <v>0.2080339729006674</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.07266649999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.145333</v>
+      </c>
+      <c r="O25">
+        <v>0.1356211259627644</v>
+      </c>
+      <c r="P25">
+        <v>0.09469496315032619</v>
+      </c>
+      <c r="Q25">
+        <v>0.02235377772975</v>
+      </c>
+      <c r="R25">
+        <v>0.08941511091899999</v>
+      </c>
+      <c r="S25">
+        <v>0.03681723204050239</v>
+      </c>
+      <c r="T25">
+        <v>0.01969976939784465</v>
       </c>
     </row>
   </sheetData>
